--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.63667066666667</v>
+        <v>52.138213</v>
       </c>
       <c r="H2">
-        <v>151.910012</v>
+        <v>156.414639</v>
       </c>
       <c r="I2">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516424</v>
       </c>
       <c r="J2">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516423</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N2">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O2">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P2">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q2">
-        <v>689.6092388906409</v>
+        <v>892.0502741741853</v>
       </c>
       <c r="R2">
-        <v>6206.483150015767</v>
+        <v>8028.452467567668</v>
       </c>
       <c r="S2">
-        <v>0.06554710186791131</v>
+        <v>0.07893717995834061</v>
       </c>
       <c r="T2">
-        <v>0.06554710186791131</v>
+        <v>0.07893717995834061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.63667066666667</v>
+        <v>52.138213</v>
       </c>
       <c r="H3">
-        <v>151.910012</v>
+        <v>156.414639</v>
       </c>
       <c r="I3">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516424</v>
       </c>
       <c r="J3">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.782459</v>
       </c>
       <c r="O3">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P3">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q3">
-        <v>553.331526675501</v>
+        <v>569.7396100019224</v>
       </c>
       <c r="R3">
-        <v>4979.983740079509</v>
+        <v>5127.656490017302</v>
       </c>
       <c r="S3">
-        <v>0.05259395596855914</v>
+        <v>0.05041603531342542</v>
       </c>
       <c r="T3">
-        <v>0.05259395596855914</v>
+        <v>0.0504160353134254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.63667066666667</v>
+        <v>52.138213</v>
       </c>
       <c r="H4">
-        <v>151.910012</v>
+        <v>156.414639</v>
       </c>
       <c r="I4">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516424</v>
       </c>
       <c r="J4">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516423</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N4">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O4">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P4">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q4">
-        <v>490.3916135002835</v>
+        <v>605.6728840546269</v>
       </c>
       <c r="R4">
-        <v>4413.524521502552</v>
+        <v>5451.055956491643</v>
       </c>
       <c r="S4">
-        <v>0.04661154061245092</v>
+        <v>0.05359575668396876</v>
       </c>
       <c r="T4">
-        <v>0.04661154061245092</v>
+        <v>0.05359575668396876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.63667066666667</v>
+        <v>52.138213</v>
       </c>
       <c r="H5">
-        <v>151.910012</v>
+        <v>156.414639</v>
       </c>
       <c r="I5">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516424</v>
       </c>
       <c r="J5">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516423</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N5">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O5">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P5">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q5">
-        <v>379.4041332662569</v>
+        <v>442.2663716560923</v>
       </c>
       <c r="R5">
-        <v>3414.637199396312</v>
+        <v>3980.397344904831</v>
       </c>
       <c r="S5">
-        <v>0.03606222186395864</v>
+        <v>0.03913597829590756</v>
       </c>
       <c r="T5">
-        <v>0.03606222186395863</v>
+        <v>0.03913597829590756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>201.972</v>
       </c>
       <c r="I6">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="J6">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N6">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O6">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P6">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q6">
-        <v>916.8701612453333</v>
+        <v>1151.869026629333</v>
       </c>
       <c r="R6">
-        <v>8251.831451207998</v>
+        <v>10366.821239664</v>
       </c>
       <c r="S6">
-        <v>0.08714816807772871</v>
+        <v>0.1019284397705637</v>
       </c>
       <c r="T6">
-        <v>0.08714816807772871</v>
+        <v>0.1019284397705637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>201.972</v>
       </c>
       <c r="I7">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="J7">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>32.782459</v>
       </c>
       <c r="O7">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P7">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q7">
         <v>735.6820899053333</v>
       </c>
       <c r="R7">
-        <v>6621.138809148</v>
+        <v>6621.138809148001</v>
       </c>
       <c r="S7">
-        <v>0.06992630923419206</v>
+        <v>0.06510022047439662</v>
       </c>
       <c r="T7">
-        <v>0.06992630923419206</v>
+        <v>0.06510022047439662</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>201.972</v>
       </c>
       <c r="I8">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="J8">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N8">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O8">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P8">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q8">
-        <v>652.0003103013332</v>
+        <v>782.081296996</v>
       </c>
       <c r="R8">
-        <v>5868.002792711999</v>
+        <v>7038.731672964001</v>
       </c>
       <c r="S8">
-        <v>0.06197238718260346</v>
+        <v>0.06920606816715243</v>
       </c>
       <c r="T8">
-        <v>0.06197238718260346</v>
+        <v>0.06920606816715243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>201.972</v>
       </c>
       <c r="I9">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="J9">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N9">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O9">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P9">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q9">
-        <v>504.4368741413334</v>
+        <v>571.0809690653333</v>
       </c>
       <c r="R9">
-        <v>4539.931867271999</v>
+        <v>5139.728721588</v>
       </c>
       <c r="S9">
-        <v>0.04794653741655589</v>
+        <v>0.05053473165245768</v>
       </c>
       <c r="T9">
-        <v>0.04794653741655588</v>
+        <v>0.05053473165245769</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.47139133333334</v>
+        <v>64.99978900000001</v>
       </c>
       <c r="H10">
-        <v>187.414174</v>
+        <v>194.999367</v>
       </c>
       <c r="I10">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="J10">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N10">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O10">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P10">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q10">
-        <v>850.7835934438485</v>
+        <v>1112.103316596489</v>
       </c>
       <c r="R10">
-        <v>7657.052340994635</v>
+        <v>10008.9298493684</v>
       </c>
       <c r="S10">
-        <v>0.08086666436882683</v>
+        <v>0.0984095876386705</v>
       </c>
       <c r="T10">
-        <v>0.08086666436882683</v>
+        <v>0.0984095876386705</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.47139133333334</v>
+        <v>64.99978900000001</v>
       </c>
       <c r="H11">
-        <v>187.414174</v>
+        <v>194.999367</v>
       </c>
       <c r="I11">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="J11">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>32.782459</v>
       </c>
       <c r="O11">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P11">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q11">
-        <v>682.6552750193185</v>
+        <v>710.2843059670505</v>
       </c>
       <c r="R11">
-        <v>6143.897475173867</v>
+        <v>6392.558753703453</v>
       </c>
       <c r="S11">
-        <v>0.06488613018633611</v>
+        <v>0.06285278050456392</v>
       </c>
       <c r="T11">
-        <v>0.06488613018633611</v>
+        <v>0.06285278050456392</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.47139133333334</v>
+        <v>64.99978900000001</v>
       </c>
       <c r="H12">
-        <v>187.414174</v>
+        <v>194.999367</v>
       </c>
       <c r="I12">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="J12">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N12">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O12">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P12">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q12">
-        <v>605.0051472623337</v>
+        <v>755.081683880731</v>
       </c>
       <c r="R12">
-        <v>5445.046325361003</v>
+        <v>6795.73515492658</v>
       </c>
       <c r="S12">
-        <v>0.05750551440118341</v>
+        <v>0.0668168829597844</v>
       </c>
       <c r="T12">
-        <v>0.05750551440118341</v>
+        <v>0.0668168829597844</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.47139133333334</v>
+        <v>64.99978900000001</v>
       </c>
       <c r="H13">
-        <v>187.414174</v>
+        <v>194.999367</v>
       </c>
       <c r="I13">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="J13">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N13">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O13">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P13">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q13">
-        <v>468.0778528822805</v>
+        <v>551.3656718430603</v>
       </c>
       <c r="R13">
-        <v>4212.700675940524</v>
+        <v>4962.291046587543</v>
       </c>
       <c r="S13">
-        <v>0.04449062595846907</v>
+        <v>0.04879013271019802</v>
       </c>
       <c r="T13">
-        <v>0.04449062595846907</v>
+        <v>0.04879013271019803</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.72398199999999</v>
+        <v>50.30497766666667</v>
       </c>
       <c r="H14">
-        <v>215.171946</v>
+        <v>150.914933</v>
       </c>
       <c r="I14">
-        <v>0.2844428428612244</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="J14">
-        <v>0.2844428428612245</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N14">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O14">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P14">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q14">
-        <v>976.7925099741159</v>
+        <v>860.6848324447996</v>
       </c>
       <c r="R14">
-        <v>8791.132589767043</v>
+        <v>7746.163492003196</v>
       </c>
       <c r="S14">
-        <v>0.09284376505466085</v>
+        <v>0.07616166428400552</v>
       </c>
       <c r="T14">
-        <v>0.09284376505466087</v>
+        <v>0.07616166428400552</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.72398199999999</v>
+        <v>50.30497766666667</v>
       </c>
       <c r="H15">
-        <v>215.171946</v>
+        <v>150.914933</v>
       </c>
       <c r="I15">
-        <v>0.2844428428612244</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="J15">
-        <v>0.2844428428612245</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>32.782459</v>
       </c>
       <c r="O15">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P15">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q15">
-        <v>783.762833077246</v>
+        <v>549.7069559511386</v>
       </c>
       <c r="R15">
-        <v>7053.865497695214</v>
+        <v>4947.362603560247</v>
       </c>
       <c r="S15">
-        <v>0.07449636600379693</v>
+        <v>0.04864335358950149</v>
       </c>
       <c r="T15">
-        <v>0.07449636600379694</v>
+        <v>0.04864335358950148</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.72398199999999</v>
+        <v>50.30497766666667</v>
       </c>
       <c r="H16">
-        <v>215.171946</v>
+        <v>150.914933</v>
       </c>
       <c r="I16">
-        <v>0.2844428428612244</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="J16">
-        <v>0.2844428428612245</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N16">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O16">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P16">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q16">
-        <v>694.6120034467239</v>
+        <v>584.3767776558357</v>
       </c>
       <c r="R16">
-        <v>6251.508031020515</v>
+        <v>5259.390998902521</v>
       </c>
       <c r="S16">
-        <v>0.06602261277972314</v>
+        <v>0.05171127255579606</v>
       </c>
       <c r="T16">
-        <v>0.06602261277972314</v>
+        <v>0.05171127255579606</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.72398199999999</v>
+        <v>50.30497766666667</v>
       </c>
       <c r="H17">
-        <v>215.171946</v>
+        <v>150.914933</v>
       </c>
       <c r="I17">
-        <v>0.2844428428612244</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="J17">
-        <v>0.2844428428612245</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N17">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O17">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P17">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q17">
-        <v>537.404510739844</v>
+        <v>426.7158130041285</v>
       </c>
       <c r="R17">
-        <v>4836.640596658596</v>
+        <v>3840.442317037156</v>
       </c>
       <c r="S17">
-        <v>0.05108009902304349</v>
+        <v>0.03775991544126726</v>
       </c>
       <c r="T17">
-        <v>0.0510800990230435</v>
+        <v>0.03775991544126726</v>
       </c>
     </row>
   </sheetData>
